--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H2">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J2">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>962.7333164866888</v>
+        <v>985.7088091062831</v>
       </c>
       <c r="R2">
-        <v>962.7333164866888</v>
+        <v>8871.379281956548</v>
       </c>
       <c r="S2">
-        <v>0.06921053098416015</v>
+        <v>0.06838306567910056</v>
       </c>
       <c r="T2">
-        <v>0.06921053098416015</v>
+        <v>0.06838306567910056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H3">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J3">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>175.5690796444436</v>
+        <v>181.1031581688782</v>
       </c>
       <c r="R3">
-        <v>175.5690796444436</v>
+        <v>1629.928423519904</v>
       </c>
       <c r="S3">
-        <v>0.01262159418242202</v>
+        <v>0.01256394286562534</v>
       </c>
       <c r="T3">
-        <v>0.01262159418242202</v>
+        <v>0.01256394286562534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H4">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J4">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>194.580542444798</v>
+        <v>200.8483824884956</v>
       </c>
       <c r="R4">
-        <v>194.580542444798</v>
+        <v>1807.63544239646</v>
       </c>
       <c r="S4">
-        <v>0.01398832099312373</v>
+        <v>0.01393375812853366</v>
       </c>
       <c r="T4">
-        <v>0.01398832099312373</v>
+        <v>0.01393375812853366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H5">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J5">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>209.0401649680931</v>
+        <v>215.037634373218</v>
       </c>
       <c r="R5">
-        <v>209.0401649680931</v>
+        <v>1935.338709358962</v>
       </c>
       <c r="S5">
-        <v>0.0150278177421506</v>
+        <v>0.01491813052594586</v>
       </c>
       <c r="T5">
-        <v>0.0150278177421506</v>
+        <v>0.01491813052594586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.1662981534737</v>
+        <v>16.38931533333333</v>
       </c>
       <c r="H6">
-        <v>16.1662981534737</v>
+        <v>49.167946</v>
       </c>
       <c r="I6">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689642</v>
       </c>
       <c r="J6">
-        <v>0.1271781819116091</v>
+        <v>0.1272611691689643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N6">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P6">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q6">
-        <v>227.1526587056938</v>
+        <v>251.7102024699313</v>
       </c>
       <c r="R6">
-        <v>227.1526587056938</v>
+        <v>2265.391822229382</v>
       </c>
       <c r="S6">
-        <v>0.01632991800975254</v>
+        <v>0.01746227196975884</v>
       </c>
       <c r="T6">
-        <v>0.01632991800975254</v>
+        <v>0.01746227196975884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J7">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N7">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P7">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q7">
-        <v>1371.899225472183</v>
+        <v>1387.568385746368</v>
       </c>
       <c r="R7">
-        <v>1371.899225472183</v>
+        <v>12488.11547171731</v>
       </c>
       <c r="S7">
-        <v>0.09862531214582794</v>
+        <v>0.09626187691552469</v>
       </c>
       <c r="T7">
-        <v>0.09862531214582794</v>
+        <v>0.09626187691552467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J8">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N8">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P8">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q8">
-        <v>250.1867134504704</v>
+        <v>254.936361035264</v>
       </c>
       <c r="R8">
-        <v>250.1867134504704</v>
+        <v>2294.427249317376</v>
       </c>
       <c r="S8">
-        <v>0.01798582742132451</v>
+        <v>0.0176860851395573</v>
       </c>
       <c r="T8">
-        <v>0.01798582742132451</v>
+        <v>0.0176860851395573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J9">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N9">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P9">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q9">
-        <v>277.2781318570546</v>
+        <v>282.7314347753601</v>
       </c>
       <c r="R9">
-        <v>277.2781318570546</v>
+        <v>2544.58291297824</v>
       </c>
       <c r="S9">
-        <v>0.01993341915926939</v>
+        <v>0.0196143547619499</v>
       </c>
       <c r="T9">
-        <v>0.01993341915926939</v>
+        <v>0.01961435476194989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J10">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N10">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P10">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q10">
-        <v>297.8831577771304</v>
+        <v>302.705444493792</v>
       </c>
       <c r="R10">
-        <v>297.8831577771304</v>
+        <v>2724.349000444128</v>
       </c>
       <c r="S10">
-        <v>0.02141470661494304</v>
+        <v>0.0210000418998065</v>
       </c>
       <c r="T10">
-        <v>0.02141470661494304</v>
+        <v>0.0210000418998065</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.0370462263</v>
+        <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>23.0370462263</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="J11">
-        <v>0.1812294705850759</v>
+        <v>0.1791437526383466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N11">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P11">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q11">
-        <v>323.6935413012657</v>
+        <v>354.3289012845121</v>
       </c>
       <c r="R11">
-        <v>323.6935413012657</v>
+        <v>3188.960111560608</v>
       </c>
       <c r="S11">
-        <v>0.02327020524371094</v>
+        <v>0.02458139392150826</v>
       </c>
       <c r="T11">
-        <v>0.02327020524371094</v>
+        <v>0.02458139392150825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H12">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J12">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N12">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P12">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q12">
-        <v>2215.487681195416</v>
+        <v>2242.925481750137</v>
       </c>
       <c r="R12">
-        <v>2215.487681195416</v>
+        <v>20186.32933575124</v>
       </c>
       <c r="S12">
-        <v>0.159270564525561</v>
+        <v>0.1556018563645707</v>
       </c>
       <c r="T12">
-        <v>0.159270564525561</v>
+        <v>0.1556018563645707</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H13">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J13">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N13">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P13">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q13">
-        <v>404.027913535347</v>
+        <v>412.0901472420587</v>
       </c>
       <c r="R13">
-        <v>404.027913535347</v>
+        <v>3708.811325178528</v>
       </c>
       <c r="S13">
-        <v>0.02904541262812976</v>
+        <v>0.02858855205942006</v>
       </c>
       <c r="T13">
-        <v>0.02904541262812976</v>
+        <v>0.02858855205942006</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H14">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I14">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J14">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N14">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P14">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q14">
-        <v>447.7779956343001</v>
+        <v>457.0193051842467</v>
       </c>
       <c r="R14">
-        <v>447.7779956343001</v>
+        <v>4113.17374665822</v>
       </c>
       <c r="S14">
-        <v>0.03219058934614252</v>
+        <v>0.03170549037840798</v>
       </c>
       <c r="T14">
-        <v>0.03219058934614252</v>
+        <v>0.03170549037840797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H15">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I15">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J15">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N15">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P15">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q15">
-        <v>481.0531664697731</v>
+        <v>489.306157371426</v>
       </c>
       <c r="R15">
-        <v>481.0531664697731</v>
+        <v>4403.755416342834</v>
       </c>
       <c r="S15">
-        <v>0.03458272868802803</v>
+        <v>0.03394537492979909</v>
       </c>
       <c r="T15">
-        <v>0.03458272868802803</v>
+        <v>0.03394537492979909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.2026539397823</v>
+        <v>37.292974</v>
       </c>
       <c r="H16">
-        <v>37.2026539397823</v>
+        <v>111.878922</v>
       </c>
       <c r="I16">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="J16">
-        <v>0.2926684789202425</v>
+        <v>0.2895757007844777</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N16">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P16">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q16">
-        <v>522.734498219902</v>
+        <v>572.752543064086</v>
       </c>
       <c r="R16">
-        <v>522.734498219902</v>
+        <v>5154.772887576774</v>
       </c>
       <c r="S16">
-        <v>0.03757918373238116</v>
+        <v>0.03973442705227987</v>
       </c>
       <c r="T16">
-        <v>0.03757918373238116</v>
+        <v>0.03973442705227986</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H17">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J17">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N17">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P17">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q17">
-        <v>2568.172120359554</v>
+        <v>2636.170702120516</v>
       </c>
       <c r="R17">
-        <v>2568.172120359554</v>
+        <v>23725.53631908464</v>
       </c>
       <c r="S17">
-        <v>0.1846249143609634</v>
+        <v>0.1828830508554281</v>
       </c>
       <c r="T17">
-        <v>0.1846249143609634</v>
+        <v>0.1828830508554281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H18">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I18">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J18">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N18">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P18">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q18">
-        <v>468.345291285326</v>
+        <v>484.3406442305795</v>
       </c>
       <c r="R18">
-        <v>468.345291285326</v>
+        <v>4359.065798075216</v>
       </c>
       <c r="S18">
-        <v>0.0336691643871626</v>
+        <v>0.03360089488852928</v>
       </c>
       <c r="T18">
-        <v>0.0336691643871626</v>
+        <v>0.03360089488852928</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H19">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I19">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J19">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N19">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P19">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q19">
-        <v>519.059967816205</v>
+        <v>537.1470931303988</v>
       </c>
       <c r="R19">
-        <v>519.059967816205</v>
+        <v>4834.32383817359</v>
       </c>
       <c r="S19">
-        <v>0.03731502314294047</v>
+        <v>0.03726431640818729</v>
       </c>
       <c r="T19">
-        <v>0.03731502314294047</v>
+        <v>0.03726431640818727</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H20">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I20">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J20">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N20">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P20">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q20">
-        <v>557.6322274433735</v>
+        <v>575.094699723697</v>
       </c>
       <c r="R20">
-        <v>557.6322274433735</v>
+        <v>5175.852297513273</v>
       </c>
       <c r="S20">
-        <v>0.04008796817801772</v>
+        <v>0.03989691302298975</v>
       </c>
       <c r="T20">
-        <v>0.04008796817801772</v>
+        <v>0.03989691302298975</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.1249604601643</v>
+        <v>43.83143633333333</v>
       </c>
       <c r="H21">
-        <v>43.1249604601643</v>
+        <v>131.494309</v>
       </c>
       <c r="I21">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="J21">
-        <v>0.3392585002618698</v>
+        <v>0.3403461170089362</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N21">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P21">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q21">
-        <v>605.9488283654694</v>
+        <v>673.1714833488003</v>
       </c>
       <c r="R21">
-        <v>605.9488283654694</v>
+        <v>6058.543350139203</v>
       </c>
       <c r="S21">
-        <v>0.0435614301927856</v>
+        <v>0.04670094183380179</v>
       </c>
       <c r="T21">
-        <v>0.0435614301927856</v>
+        <v>0.04670094183380178</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H22">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I22">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J22">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N22">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P22">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q22">
-        <v>451.6642482213999</v>
+        <v>493.1849525659576</v>
       </c>
       <c r="R22">
-        <v>451.6642482213999</v>
+        <v>4438.664573093618</v>
       </c>
       <c r="S22">
-        <v>0.03246997056260784</v>
+        <v>0.03421446444598585</v>
       </c>
       <c r="T22">
-        <v>0.03246997056260784</v>
+        <v>0.03421446444598584</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H23">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I23">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J23">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N23">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P23">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q23">
-        <v>82.36785308097014</v>
+        <v>90.61231029480712</v>
       </c>
       <c r="R23">
-        <v>82.36785308097014</v>
+        <v>815.510792653264</v>
       </c>
       <c r="S23">
-        <v>0.005921393547034326</v>
+        <v>0.00628618463077641</v>
       </c>
       <c r="T23">
-        <v>0.005921393547034326</v>
+        <v>0.006286184630776409</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H24">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I24">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J24">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N24">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P24">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q24">
-        <v>91.28703963685568</v>
+        <v>100.4915438265678</v>
       </c>
       <c r="R24">
-        <v>91.28703963685568</v>
+        <v>904.42389443911</v>
       </c>
       <c r="S24">
-        <v>0.00656259046720776</v>
+        <v>0.006971551616665565</v>
       </c>
       <c r="T24">
-        <v>0.00656259046720776</v>
+        <v>0.006971551616665564</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H25">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I25">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J25">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N25">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P25">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q25">
-        <v>98.07074019516038</v>
+        <v>107.590927998713</v>
       </c>
       <c r="R25">
-        <v>98.07074019516038</v>
+        <v>968.318351988417</v>
       </c>
       <c r="S25">
-        <v>0.007050268113382067</v>
+        <v>0.007464067915231613</v>
       </c>
       <c r="T25">
-        <v>0.007050268113382067</v>
+        <v>0.007464067915231612</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.58438373012581</v>
+        <v>8.200153666666667</v>
       </c>
       <c r="H26">
-        <v>7.58438373012581</v>
+        <v>24.600461</v>
       </c>
       <c r="I26">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="J26">
-        <v>0.05966536832120276</v>
+        <v>0.06367326039927532</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.0510002072976</v>
+        <v>15.358189</v>
       </c>
       <c r="N26">
-        <v>14.0510002072976</v>
+        <v>46.074567</v>
       </c>
       <c r="O26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="P26">
-        <v>0.128401882809601</v>
+        <v>0.1372160265679646</v>
       </c>
       <c r="Q26">
-        <v>106.5681773642223</v>
+        <v>125.9395098417097</v>
       </c>
       <c r="R26">
-        <v>106.5681773642223</v>
+        <v>1133.455588575387</v>
       </c>
       <c r="S26">
-        <v>0.007661145630970756</v>
+        <v>0.008736991790615892</v>
       </c>
       <c r="T26">
-        <v>0.007661145630970756</v>
+        <v>0.00873699179061589</v>
       </c>
     </row>
   </sheetData>
